--- a/budget.xlsx
+++ b/budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajr/Dropbox/Research/swArthropods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E753249-3DAD-1342-8C87-E2ED0670E560}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BCF0D44B-6F6C-1349-87A4-BF4C556B8CB1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{BC1777CE-570C-F64B-8778-1B773336124D}"/>
+    <workbookView xWindow="980" yWindow="560" windowWidth="27820" windowHeight="17440" xr2:uid="{BC1777CE-570C-F64B-8778-1B773336124D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,8 +853,8 @@
         <v>18</v>
       </c>
       <c r="E23">
-        <f>9000 - E22</f>
-        <v>4009.46</v>
+        <f>7000 - E22</f>
+        <v>2009.46</v>
       </c>
     </row>
   </sheetData>
